--- a/函数处理.xlsx
+++ b/函数处理.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\Kogel.Dapper.Extension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3310CFE-AD1A-4B0F-90E2-6C2B2A38EAAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A28827-77CD-4C3F-B5C5-999FC9D6BA45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="1110" windowWidth="28695" windowHeight="15045" activeTab="1" xr2:uid="{EBC4234C-892A-439E-B353-8F714BDB8A0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{EBC4234C-892A-439E-B353-8F714BDB8A0D}"/>
   </bookViews>
   <sheets>
     <sheet name="基础函数" sheetId="1" r:id="rId1"/>
     <sheet name="时间函数" sheetId="2" r:id="rId2"/>
+    <sheet name="动态查询配置函数" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>函数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -202,6 +203,65 @@
   </si>
   <si>
     <t>add_months(field,input*12)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data-operator（数据操作符）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果判断</t>
+  </si>
+  <si>
+    <t>等于（Equal）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模糊查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于等于</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小于等于</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data-type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>值类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13（默认值）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16（默认值）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data-table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名称（默认不需要，连表时需要判断其他表的字段条件时填写表名称“实体类名称即可”）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -209,7 +269,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +296,22 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.39997558519241921"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -290,7 +366,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -305,6 +381,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -624,7 +715,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -712,7 +803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A79A0F-3A75-4352-88B9-63B796BB0561}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
@@ -862,4 +953,105 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7F9526-30A0-4CF5-95B4-96CFE5961C20}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="28.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.125" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="5" customFormat="1">
+      <c r="A1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="7">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="7">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="7">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1">
+      <c r="A10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="1" customFormat="1">
+      <c r="A17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/函数处理.xlsx
+++ b/函数处理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\Kogel.Dapper.Extension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A28827-77CD-4C3F-B5C5-999FC9D6BA45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC804721-FB56-4A79-BB83-70981E2CF99D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{EBC4234C-892A-439E-B353-8F714BDB8A0D}"/>
   </bookViews>
@@ -379,23 +379,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -817,21 +817,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
@@ -960,93 +960,93 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="28.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1">
+      <c r="A1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>16</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>21</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="1" customFormat="1">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>59</v>
       </c>
     </row>

--- a/函数处理.xlsx
+++ b/函数处理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\Kogel.Dapper.Extension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC804721-FB56-4A79-BB83-70981E2CF99D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95FEB50-2F06-403B-8A70-32D96A170287}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{EBC4234C-892A-439E-B353-8F714BDB8A0D}"/>
+    <workbookView xWindow="7245" yWindow="2025" windowWidth="28695" windowHeight="15045" xr2:uid="{EBC4234C-892A-439E-B353-8F714BDB8A0D}"/>
   </bookViews>
   <sheets>
     <sheet name="基础函数" sheetId="1" r:id="rId1"/>
@@ -50,57 +50,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(this int input, int[] array) | (this string input, string[] array)</t>
-  </si>
-  <si>
-    <t>(this int input, int[] array) | (this string input, string[] array)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Between</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(this int input,int from,int to) | (this DateTime input, DateTime from, DateTime to)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>input.Between(from,to)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NotIn</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>input In (array)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>input Not In (array)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>IsNull</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(this object input)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>input Is Null</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>IsNotNull</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>input Is Not Null</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Mssql</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -262,6 +227,42 @@
   </si>
   <si>
     <t>表名称（默认不需要，连表时需要判断其他表的字段条件时填写表名称“实体类名称即可”）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(this 字段, int[] array) | (this string input, string[] array)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(this 字段, int[] array) | (this string input, string[] array)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(this 字段,int from,int to) | (this DateTime input, DateTime from, DateTime to)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(this 字段)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段 In (array)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段 Not In (array)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段 Between(from,to)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段 Is Null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段 Is Not Null</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -714,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7E2F27-62D9-4C58-B6F3-9E704C84D5D4}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -743,59 +744,60 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -833,115 +835,115 @@
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
         <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
         <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -959,7 +961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7F9526-30A0-4CF5-95B4-96CFE5961C20}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -971,18 +973,18 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -990,7 +992,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -998,7 +1000,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1006,24 +1008,24 @@
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1">
       <c r="A10" s="8" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1031,7 +1033,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1039,15 +1041,15 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="1" customFormat="1">
       <c r="A17" s="8" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/函数处理.xlsx
+++ b/函数处理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\Kogel.Dapper.Extension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95FEB50-2F06-403B-8A70-32D96A170287}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472E52C1-E3E3-434D-B6F8-7C7E8F66862B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7245" yWindow="2025" windowWidth="28695" windowHeight="15045" xr2:uid="{EBC4234C-892A-439E-B353-8F714BDB8A0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EBC4234C-892A-439E-B353-8F714BDB8A0D}"/>
   </bookViews>
   <sheets>
     <sheet name="基础函数" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t>函数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -163,14 +163,6 @@
     <t>((字段)+(input))</t>
   </si>
   <si>
-    <t>add_months(field,input)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_months(field,input*12)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>data-operator（数据操作符）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -230,22 +222,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(this 字段, int[] array) | (this string input, string[] array)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(this 字段, int[] array) | (this string input, string[] array)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(this 字段,int from,int to) | (this DateTime input, DateTime from, DateTime to)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(this 字段)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>字段 In (array)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -263,6 +239,81 @@
   </si>
   <si>
     <t>字段 Is Not Null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToLower</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段.Trim()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段.ToLower</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lower(字段)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToUpper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段.ToUpper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>upper(字段)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replace</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段.Replace(a,b)</t>
+  </si>
+  <si>
+    <t>Replace(字段,a,b)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trim</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trim(字段)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段.In(数组)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段.NotIn(数组)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段.Between(from,to)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段.IsNull()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段.IsNotNull()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_months(字段,input)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_months(字段,input*12)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -713,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7E2F27-62D9-4C58-B6F3-9E704C84D5D4}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -744,10 +795,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -755,10 +806,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -766,10 +817,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -777,10 +828,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -788,10 +839,54 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>54</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
         <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -805,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A79A0F-3A75-4352-88B9-63B796BB0561}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="A1:E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -926,7 +1021,7 @@
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -943,7 +1038,7 @@
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -973,18 +1068,18 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -992,7 +1087,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1000,7 +1095,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1008,24 +1103,24 @@
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1">
       <c r="A10" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1033,7 +1128,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1041,15 +1136,15 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="1" customFormat="1">
       <c r="A17" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/函数处理.xlsx
+++ b/函数处理.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\Kogel.Dapper.Extension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472E52C1-E3E3-434D-B6F8-7C7E8F66862B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A17E5E8-8969-4CF9-BF77-FC1961221E5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EBC4234C-892A-439E-B353-8F714BDB8A0D}"/>
+    <workbookView xWindow="4155" yWindow="1485" windowWidth="28695" windowHeight="15045" activeTab="2" xr2:uid="{EBC4234C-892A-439E-B353-8F714BDB8A0D}"/>
   </bookViews>
   <sheets>
     <sheet name="基础函数" sheetId="1" r:id="rId1"/>
     <sheet name="时间函数" sheetId="2" r:id="rId2"/>
-    <sheet name="动态查询配置函数" sheetId="3" r:id="rId3"/>
+    <sheet name="字符转换" sheetId="4" r:id="rId3"/>
+    <sheet name="动态查询配置函数" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="90">
   <si>
     <t>函数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -314,6 +316,74 @@
   </si>
   <si>
     <t>add_months(字段,input*12)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convert.ToBoolean(a)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">a not in ('0','false') </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a not in ('0','false')</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convert.ToDecimal(a)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cast(a as decimal(36,18))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cast(a as decimal(36,19))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cast(a as number)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convert.ToDouble(a)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cast(a as decimal(32,16))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convert.ToInt32(a)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cast(a as signed)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cast(a as int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convert.ToString(a)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>to_char(a)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cast(a as char)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cast(a as nvarchar(2000))</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -418,7 +488,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -445,6 +515,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -767,7 +840,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -900,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A79A0F-3A75-4352-88B9-63B796BB0561}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -914,21 +987,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1053,11 +1126,130 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E50495-2891-4181-939D-599B63F80A59}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="10"/>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7F9526-30A0-4CF5-95B4-96CFE5961C20}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/函数处理.xlsx
+++ b/函数处理.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\Kogel.Dapper.Extension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A17E5E8-8969-4CF9-BF77-FC1961221E5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2DB14E-0CC8-4028-9D53-E1E278E5BA8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="1485" windowWidth="28695" windowHeight="15045" activeTab="2" xr2:uid="{EBC4234C-892A-439E-B353-8F714BDB8A0D}"/>
+    <workbookView xWindow="13500" yWindow="780" windowWidth="28695" windowHeight="15045" activeTab="3" xr2:uid="{EBC4234C-892A-439E-B353-8F714BDB8A0D}"/>
   </bookViews>
   <sheets>
     <sheet name="基础函数" sheetId="1" r:id="rId1"/>
     <sheet name="时间函数" sheetId="2" r:id="rId2"/>
     <sheet name="字符转换" sheetId="4" r:id="rId3"/>
-    <sheet name="动态查询配置函数" sheetId="3" r:id="rId4"/>
+    <sheet name="分组聚合" sheetId="5" r:id="rId4"/>
+    <sheet name="动态查询配置函数" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="105">
   <si>
     <t>函数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -384,6 +385,66 @@
   </si>
   <si>
     <t>cast(a as nvarchar(2000))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T(字段)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定一个列求统计数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定一个列求和</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定一个列求最大值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定一个列求最小值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定一个列请平均值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +549,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -521,6 +582,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1129,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E50495-2891-4181-939D-599B63F80A59}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1245,6 +1309,112 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B67840-5E97-429F-A481-BE126B007C92}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="11" customFormat="1">
+      <c r="A1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7F9526-30A0-4CF5-95B4-96CFE5961C20}">
   <dimension ref="A1:C17"/>
   <sheetViews>
